--- a/CLSD.xlsx
+++ b/CLSD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3104E-4350-4D62-9CF6-9CE700E4E8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C61D0D-993A-4702-9300-57990DF51323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32220" yWindow="1140" windowWidth="30405" windowHeight="18060" xr2:uid="{B60FE35D-6A3B-4072-A89C-B3F48E01A28F}"/>
+    <workbookView xWindow="-30615" yWindow="870" windowWidth="24300" windowHeight="20700" activeTab="1" xr2:uid="{B60FE35D-6A3B-4072-A89C-B3F48E01A28F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="CLS-AX" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Price</t>
   </si>
@@ -72,14 +73,81 @@
   </si>
   <si>
     <t>n=60 vs 2mg Eylea</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>CLS-AX</t>
+  </si>
+  <si>
+    <t>CLS-AX (axitinib)</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase IIb "ODYSSEY" n=60 wet AMD 36 weeks - NCT05891548</t>
+  </si>
+  <si>
+    <t>Phase I/II "OASIS"</t>
+  </si>
+  <si>
+    <t>CLS-AX vs aflibercept (2:1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PE: BCVA from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>baseline</t>
+    </r>
+  </si>
+  <si>
+    <t>Results : Four dose-escalating cohorts (0.03 mg, n=6; 0.1 mg, n=5; 0.5 mg, n=8; 1.0 mg, n=8) were enrolled with a mean age 81 years, mean duration of nAMD diagnosis 54 months, and mean 29.9 prior anti-VEGF injections. In all cohorts, there were no serious adverse events, no treatment emergent adverse events related to study treatment, no dose limiting toxicities, and no adverse events related to inflammation, vasculitis or vascular occlusion. In cohorts 3 and 4, in OASIS to the 3-month timepoint (n=16), there was a 73% reduction in treatment burden, and in the ongoing Extension Study (interim data as of 10/27/22, n=12), there was a 90% reduction in treatment burden from the average monthly injections before CLS-AX. In cohorts 3 and 4 from the ongoing Extension Study, the injection free rate for supplemental aflibercept treatment was 88% up to month 5 (7/8 patients not receiving additional therapy) and 75% to month 6 (3/4 of patients not receiving additional therapy). Through 6 months, stable mean BCVA and anatomic signs of biological effect, including stable mean CST, were observed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -189,10 +257,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,8 +276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,11 +618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933BECC4-04DF-4100-9AC3-70AB44C56670}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="8" width="7.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -567,12 +645,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -596,7 +674,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>95.674332159999992</v>
+        <v>94.926876440000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -634,7 +712,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>66.314332159999992</v>
+        <v>65.566876440000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -652,6 +730,82 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'CLS-AX'!A1" display="CLS-AX (axitinib)" xr:uid="{725C4817-4787-4333-9398-9088CD507FD8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A847C0BB-37CD-48F8-A894-323A6407B671}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B3D24081-FAFD-417E-8849-BCD57CC95696}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>